--- a/MainProject7rMart/src/test/resources/TestData.xlsx
+++ b/MainProject7rMart/src/test/resources/TestData.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DE9D48C9-9BAF-47E8-AB56-370C1406F7D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\git\AutomationCourse\MainProject7rMart\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F35616-8BC6-4566-B947-336BDFD9646E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1044" yWindow="1044" windowWidth="9396" windowHeight="7512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,6 @@
     <sheet name="AdminUser" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,9 +48,6 @@
     <t>Necklace</t>
   </si>
   <si>
-    <t>C:\\Users\\Lenovo\\OneDrive\\Desktop\\necklace.jpeg</t>
-  </si>
-  <si>
     <t>ImageUpload</t>
   </si>
   <si>
@@ -87,6 +88,9 @@
   </si>
   <si>
     <t>usertype1</t>
+  </si>
+  <si>
+    <t>C:\Users\Lenovo\git\AutomationCourse\MainProject7rMart\src\test\resources\necklace.jpeg</t>
   </si>
 </sst>
 </file>
@@ -413,7 +417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -468,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCE7ABD-BBEC-4E39-A90E-13E7B466F131}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,13 +487,13 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -497,13 +501,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>556</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -528,18 +532,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -563,27 +567,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
